--- a/domace_naloge/1.naloga/belezka_opravil.xlsx
+++ b/domace_naloge/1.naloga/belezka_opravil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Drive\2.Letnik\4.semester\Testiranje_in_kakovost\domace_naloge\1.naloga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AD2D1F-B2CF-41A3-A2F0-F372F1E2C791}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD727DD-AE6A-47DC-AB8C-E80F8AB300E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1770" yWindow="2640" windowWidth="21600" windowHeight="11385" xr2:uid="{323CC0E3-87DC-4E47-A536-8940BC44A318}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{323CC0E3-87DC-4E47-A536-8940BC44A318}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t xml:space="preserve">Datum: </t>
   </si>
@@ -101,12 +101,6 @@
     <t>Načrtovanje</t>
   </si>
   <si>
-    <t>Kodiranje(T)</t>
-  </si>
-  <si>
-    <t>Kodiranje(P)</t>
-  </si>
-  <si>
     <t>Pregled kode</t>
   </si>
   <si>
@@ -123,6 +117,9 @@
   </si>
   <si>
     <t>Sebastjan Mevlja</t>
+  </si>
+  <si>
+    <t>Kodiranje(T+P)</t>
   </si>
 </sst>
 </file>
@@ -169,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -199,6 +196,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -286,7 +286,21 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B6F6BB28-9A8C-404E-8811-53BED8625DB7}" name="Table2" displayName="Table2" ref="A5:M12" totalsRowShown="0" dataDxfId="13">
-  <autoFilter ref="A5:M12" xr:uid="{3C400AB3-21DC-4C2D-925A-7F3422477936}"/>
+  <autoFilter ref="A5:M12" xr:uid="{3C400AB3-21DC-4C2D-925A-7F3422477936}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+    <filterColumn colId="8" hiddenButton="1"/>
+    <filterColumn colId="9" hiddenButton="1"/>
+    <filterColumn colId="10" hiddenButton="1"/>
+    <filterColumn colId="11" hiddenButton="1"/>
+    <filterColumn colId="12" hiddenButton="1"/>
+  </autoFilter>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{11588907-8CCF-4EEF-90FF-0EF4620A8C38}" name="Št." dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{01EC6F56-07FA-450E-A772-3877F9AEC8B5}" name="Datum" dataDxfId="11"/>
@@ -617,7 +631,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,7 +654,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -649,7 +663,7 @@
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -657,7 +671,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -673,22 +687,22 @@
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="14" t="s">
+      <c r="E4" s="14"/>
+      <c r="F4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14" t="s">
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -809,7 +823,7 @@
         <v>43956</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D8" s="9">
         <v>60</v>
@@ -821,29 +835,29 @@
         <v>54.000000000000028</v>
       </c>
       <c r="G8" s="9">
-        <v>543</v>
+        <v>604</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" ref="H8:H11" si="0">(F8/G8)</f>
-        <v>9.9447513812154748E-2</v>
+        <v>8.9403973509933815E-2</v>
       </c>
       <c r="I8" s="9">
         <v>54.000000000000028</v>
       </c>
-      <c r="J8" s="9">
-        <v>543</v>
+      <c r="J8" s="13">
+        <v>604</v>
       </c>
       <c r="K8" s="6">
         <f t="shared" ref="K8:K11" si="1">(I8/J8)</f>
-        <v>9.9447513812154748E-2</v>
+        <v>8.9403973509933815E-2</v>
       </c>
       <c r="L8" s="6">
         <f t="shared" ref="L8:L11" si="2">MAX(H8)</f>
-        <v>9.9447513812154748E-2</v>
+        <v>8.9403973509933815E-2</v>
       </c>
       <c r="M8" s="6">
         <f t="shared" ref="M8:M11" si="3">MIN(H8)</f>
-        <v>9.9447513812154748E-2</v>
+        <v>8.9403973509933815E-2</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -854,7 +868,7 @@
         <v>43957</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D9" s="9">
         <v>120</v>
@@ -866,29 +880,31 @@
         <v>168.99999999999997</v>
       </c>
       <c r="G9" s="9">
-        <v>412</v>
+        <v>351</v>
       </c>
       <c r="H9" s="5">
         <f t="shared" si="0"/>
-        <v>0.41019417475728148</v>
+        <v>0.4814814814814814</v>
       </c>
       <c r="I9" s="9">
-        <v>168.99999999999997</v>
+        <f>169 + 54</f>
+        <v>223</v>
       </c>
       <c r="J9" s="9">
-        <v>412</v>
+        <f>351+604</f>
+        <v>955</v>
       </c>
       <c r="K9" s="6">
         <f t="shared" si="1"/>
-        <v>0.41019417475728148</v>
+        <v>0.23350785340314137</v>
       </c>
       <c r="L9" s="6">
-        <f t="shared" si="2"/>
-        <v>0.41019417475728148</v>
+        <f>MAX(H8:H9)</f>
+        <v>0.4814814814814814</v>
       </c>
       <c r="M9" s="6">
-        <f t="shared" si="3"/>
-        <v>0.41019417475728148</v>
+        <f>MIN(H8:H9)</f>
+        <v>8.9403973509933815E-2</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -899,7 +915,7 @@
         <v>43957</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D10" s="9">
         <v>30</v>
@@ -924,7 +940,7 @@
         <v>4</v>
       </c>
       <c r="K10" s="6">
-        <f t="shared" si="1"/>
+        <f>(I10/J10)</f>
         <v>19.000000000000032</v>
       </c>
       <c r="L10" s="6">
@@ -944,7 +960,7 @@
         <v>43958</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D11" s="9">
         <v>120</v>
@@ -973,7 +989,7 @@
         <v>5.2499999999999982</v>
       </c>
       <c r="L11" s="6">
-        <f t="shared" si="2"/>
+        <f>MAX(H11)</f>
         <v>5.2499999999999982</v>
       </c>
       <c r="M11" s="6">
@@ -989,7 +1005,7 @@
         <v>43958</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12" s="9">
         <v>60</v>
